--- a/public/LecturerData/dosen.xlsx
+++ b/public/LecturerData/dosen.xlsx
@@ -1,53 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RickyJonna\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6306A5-CDA6-42CC-933F-A38A8C73E6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
-    <t>2023-02-14T02:05:56.000000Z</t>
+    <t>Ricky Dosen</t>
   </si>
   <si>
-    <t>Ricky Dosen2</t>
-  </si>
-  <si>
-    <t>Ricky Dosen 1</t>
-  </si>
-  <si>
-    <t>Ricky Dosen 3</t>
+    <t>2023-02-17T21:59:33.000000Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -62,33 +48,21 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -378,20 +352,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -399,50 +372,27 @@
         <v>1234567890</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1234567891</v>
-      </c>
-      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1234567892</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/public/LecturerData/dosen.xlsx
+++ b/public/LecturerData/dosen.xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Ricky Dosen</t>
+    <t>User Dosen1</t>
   </si>
   <si>
-    <t>2023-02-17T21:59:33.000000Z</t>
+    <t>2023-02-20T16:46:43.000000Z</t>
+  </si>
+  <si>
+    <t>User Dosen2</t>
+  </si>
+  <si>
+    <t>2023-02-20T16:46:44.000000Z</t>
   </si>
 </sst>
 </file>
@@ -356,7 +362,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,6 +385,23 @@
       </c>
       <c r="E1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1234567891</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/public/LecturerData/dosen.xlsx
+++ b/public/LecturerData/dosen.xlsx
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>NIDN</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
   <si>
     <t>User Dosen1</t>
   </si>
   <si>
-    <t>2023-02-20T16:46:43.000000Z</t>
-  </si>
-  <si>
     <t>User Dosen2</t>
-  </si>
-  <si>
-    <t>2023-02-20T16:46:44.000000Z</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,38 +373,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>1234567890</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1234567891</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/public/LecturerData/dosen.xlsx
+++ b/public/LecturerData/dosen.xlsx
@@ -15,16 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>NIDN</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>User Dosen1</t>
   </si>
@@ -365,7 +356,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,36 +365,25 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1234567890</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1234567891</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1234567890</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1234567891</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
